--- a/Symphony/Hello Daffodils/Due Summary.xlsx
+++ b/Symphony/Hello Daffodils/Due Summary.xlsx
@@ -274,12 +274,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,13 +302,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +600,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,135 +611,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>50067</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>4595</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>4200</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>14655</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>10752</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>9354</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>4900</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>9306</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>6720</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15">
+      <c r="B13" s="15"/>
+      <c r="C13" s="11">
         <f>SUM(C4:C12)</f>
         <v>114549</v>
       </c>
